--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_AREPD_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_AREPD_Lineal_No_Estacionario_ARIMA.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.08454988906080735</v>
+        <v>-0.07983774705404588</v>
       </c>
       <c r="D2">
-        <v>0.9326293188556982</v>
+        <v>0.9370881031581431</v>
       </c>
       <c r="E2">
         <v>10.97911125853406</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.5888323571230326</v>
+        <v>-0.580263322589555</v>
       </c>
       <c r="D3">
-        <v>0.5560529450528158</v>
+        <v>0.5676334687541575</v>
       </c>
       <c r="E3">
         <v>10.97911125853406</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-2.333925752221192</v>
+        <v>-2.184598312191488</v>
       </c>
       <c r="D4">
-        <v>0.01971706022069819</v>
+        <v>0.03985905858210481</v>
       </c>
       <c r="E4">
         <v>10.97911125853406</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-1.104917508795595</v>
+        <v>-0.9126187327275742</v>
       </c>
       <c r="D5">
-        <v>0.2693536441210851</v>
+        <v>0.3713361602658627</v>
       </c>
       <c r="E5">
         <v>10.97911125853406</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.4791251052709434</v>
+        <v>-0.5672919854961624</v>
       </c>
       <c r="D6">
-        <v>0.631912024338424</v>
+        <v>0.5762593634827216</v>
       </c>
       <c r="E6">
         <v>11.0967014339169</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-1.584696396433296</v>
+        <v>-1.54701944760919</v>
       </c>
       <c r="D7">
-        <v>0.1132236471662871</v>
+        <v>0.1361240161137447</v>
       </c>
       <c r="E7">
         <v>11.0967014339169</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.913551122135051</v>
+        <v>-1.051001375472754</v>
       </c>
       <c r="D8">
-        <v>0.3610839225755373</v>
+        <v>0.3046662384684842</v>
       </c>
       <c r="E8">
         <v>11.0967014339169</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-1.011759302513525</v>
+        <v>-1.234111707097367</v>
       </c>
       <c r="D9">
-        <v>0.3117989318775887</v>
+        <v>0.2301825960583397</v>
       </c>
       <c r="E9">
         <v>11.866027161771</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.5415123952523905</v>
+        <v>-0.8000733981514283</v>
       </c>
       <c r="D10">
-        <v>0.5882263017267779</v>
+        <v>0.4322232391561178</v>
       </c>
       <c r="E10">
         <v>11.866027161771</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.5528659240192169</v>
+        <v>0.4692201312574588</v>
       </c>
       <c r="D11">
-        <v>0.5804288202848351</v>
+        <v>0.643529163473457</v>
       </c>
       <c r="E11">
         <v>13.59577414352025</v>
